--- a/biology/Zoologie/Filistata/Filistata.xlsx
+++ b/biology/Zoologie/Filistata/Filistata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Filistata est un genre d'araignées aranéomorphes de la famille des Filistatidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Filistata est un genre d'araignées aranéomorphes de la famille des Filistatidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le Sud de l'Asie, en Afrique du Nord et en Europe du Sud[1]. Filistata insidiatrix a été introduite au Cap-Vert, en Angola et au Venezuela.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le Sud de l'Asie, en Afrique du Nord et en Europe du Sud. Filistata insidiatrix a été introduite au Cap-Vert, en Angola et au Venezuela.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 01/09/2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 01/09/2022) :
 Filistata albens Zonstein &amp; Marusik, 2019
 Filistata balouchi Zamani &amp; Marusik, 2020
 Filistata betarif Magalhaes, Aharon, Ganem &amp; Gavish-Regev, 2022
@@ -586,10 +602,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Latreille en 1810. Il a été révisé par Zonstein et Marusik en 2019[3].
-Teratodes[4] a été placé en synonymie par Simon en 1864[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Latreille en 1810. Il a été révisé par Zonstein et Marusik en 2019.
+Teratodes a été placé en synonymie par Simon en 1864.
 </t>
         </is>
       </c>
@@ -618,7 +636,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Latreille, 1810 : Considérations générales sur l'ordre naturel des Animaux composant la classe des Crustacés, des Arachnides et des Insectes. Paris, p. 119-129.</t>
         </is>
